--- a/src/weapons_list.xlsx
+++ b/src/weapons_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IMI\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7A665C-4690-4B03-B75D-E718AAD0447D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B454A49-63A9-4378-99B8-94D0C808A700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{9051FEE3-EF32-4600-9F23-AE63AF92C47E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="724">
   <si>
     <t>None</t>
   </si>
@@ -1276,6 +1276,933 @@
   </si>
   <si>
     <t>3/15</t>
+  </si>
+  <si>
+    <t>Arasaka WCAA "Rapid Assault Shot 12"</t>
+  </si>
+  <si>
+    <t>4D6 (12ga/#00)</t>
+  </si>
+  <si>
+    <t>CCMMC Qi-15</t>
+  </si>
+  <si>
+    <t>Constitution Arms Hurricane Assault Weapon</t>
+  </si>
+  <si>
+    <t>Enfield-Ubichi LastChance</t>
+  </si>
+  <si>
+    <t>Luigi Franchi P.16</t>
+  </si>
+  <si>
+    <t>980 eb</t>
+  </si>
+  <si>
+    <t>Luigi Franchi "King Buck" Multi-Magnum</t>
+  </si>
+  <si>
+    <t>6D6/5D6/4D6 (10ga/#00)</t>
+  </si>
+  <si>
+    <t>800 eb</t>
+  </si>
+  <si>
+    <t>MetaCorp Warhammer™ Assault Shotgun</t>
+  </si>
+  <si>
+    <t>Varies (12ga Mag)</t>
+  </si>
+  <si>
+    <t>75m</t>
+  </si>
+  <si>
+    <t>Military M-12 Close Assault Weapon</t>
+  </si>
+  <si>
+    <t>Militech Bulldog Compact Assault Shotgun</t>
+  </si>
+  <si>
+    <t>Varies (12ga.)</t>
+  </si>
+  <si>
+    <t>Militech Crusher SSG</t>
+  </si>
+  <si>
+    <t>3D6/1D6+2 (20ga./#4)</t>
+  </si>
+  <si>
+    <t>12/25m</t>
+  </si>
+  <si>
+    <t>Militech Military/Police Shotgun</t>
+  </si>
+  <si>
+    <t>0/-1</t>
+  </si>
+  <si>
+    <t>None/L</t>
+  </si>
+  <si>
+    <t>4D6 (12ga./#00)</t>
+  </si>
+  <si>
+    <t>Mustang Arms Close-Control 20</t>
+  </si>
+  <si>
+    <t>3D6 (20ga/#4)</t>
+  </si>
+  <si>
+    <t>Mustang Arms "Raider" Riot Shotgun</t>
+  </si>
+  <si>
+    <t>Long Coat/N</t>
+  </si>
+  <si>
+    <t>Sternmeyer Stakeout 10</t>
+  </si>
+  <si>
+    <t>Tsunami Arms "Ragnarok" Close Assault Weapon</t>
+  </si>
+  <si>
+    <t>6D6 (12ga/#00 EAE)</t>
+  </si>
+  <si>
+    <t>4500 eb</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>AKR-20 Medium Assault</t>
+  </si>
+  <si>
+    <t>5D6 (5.45mm)</t>
+  </si>
+  <si>
+    <t>Arasaka WAA Bullpup Assault Weapon</t>
+  </si>
+  <si>
+    <t>5D6 (5.56mm)</t>
+  </si>
+  <si>
+    <t>15/30</t>
+  </si>
+  <si>
+    <t>CCMMC Jinhua M-9</t>
+  </si>
+  <si>
+    <t>Chadran Arms Jungle Reaper</t>
+  </si>
+  <si>
+    <t>1550 eb</t>
+  </si>
+  <si>
+    <t>Colt M-18 Assault Weapon</t>
+  </si>
+  <si>
+    <t>5d6 (5.56mm)</t>
+  </si>
+  <si>
+    <t>Darra-Polytechnic M-9 Assault Rifle</t>
+  </si>
+  <si>
+    <t>4d6+2 (5.5mm)</t>
+  </si>
+  <si>
+    <t>FN-RAL Heavy Assault Rifle</t>
+  </si>
+  <si>
+    <t>Federated Arms Light Assault 15</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>5D6+3 (7mm)</t>
+  </si>
+  <si>
+    <t>400 eb; 700 eb smartchipped</t>
+  </si>
+  <si>
+    <t>Fábrica de Armes M-2012</t>
+  </si>
+  <si>
+    <t>5D6+3 (6.5mm)</t>
+  </si>
+  <si>
+    <t>1400 eb</t>
+  </si>
+  <si>
+    <t>Kalashnikov A-80 Heavy Assault Rifle</t>
+  </si>
+  <si>
+    <t>550 eb</t>
+  </si>
+  <si>
+    <t>Militech Dragon Light Assault Weapon</t>
+  </si>
+  <si>
+    <t>6D6-1 (6.5mm Hybrid)</t>
+  </si>
+  <si>
+    <t>Militech M-31a1 Advanced Infantry Combat Weapon</t>
+  </si>
+  <si>
+    <t>4D6 (4.5mm)</t>
+  </si>
+  <si>
+    <t>1695 eb</t>
+  </si>
+  <si>
+    <t>Militech Mk IV Assault Weapon (Revised)</t>
+  </si>
+  <si>
+    <t>6D6-1 (6.5mm Hybrid)/5D6 (5.56mm)</t>
+  </si>
+  <si>
+    <t>Militech Ronin Light Assault</t>
+  </si>
+  <si>
+    <t>Royal Enfield Ordnance Liquid Propellant Assault Rifle LPA1</t>
+  </si>
+  <si>
+    <t>Varies (7.5mm)</t>
+  </si>
+  <si>
+    <t>2x45</t>
+  </si>
+  <si>
+    <t>500m</t>
+  </si>
+  <si>
+    <t>1800 eb</t>
+  </si>
+  <si>
+    <t>Sternmeyer M-95A4 (CG-13B) Assault Weapon</t>
+  </si>
+  <si>
+    <t>695-750 eb</t>
+  </si>
+  <si>
+    <t>Stolbovoy St-5 Assault Rifle</t>
+  </si>
+  <si>
+    <t>900 eb; 1800 eb smartchipped</t>
+  </si>
+  <si>
+    <t>Towa Manufacturing Type-20 Advanced Infantry Combat Weapon</t>
+  </si>
+  <si>
+    <t>4200 eb</t>
+  </si>
+  <si>
+    <t>Towa Manufacturing Type-99 Assault Rifle</t>
+  </si>
+  <si>
+    <t>2/20</t>
+  </si>
+  <si>
+    <t>1/30</t>
+  </si>
+  <si>
+    <t>1/25</t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>3/25</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>4/20</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>Arasaka WSSA Sniper System</t>
+  </si>
+  <si>
+    <t>+5*(*Smartchipped)</t>
+  </si>
+  <si>
+    <t>6D6 (3.5mm FF)</t>
+  </si>
+  <si>
+    <t>600m</t>
+  </si>
+  <si>
+    <t>2400 eb</t>
+  </si>
+  <si>
+    <t>Barrett M-90 Sniper Rifle</t>
+  </si>
+  <si>
+    <t>6D10 (12.7mm BMG)</t>
+  </si>
+  <si>
+    <t>1000m</t>
+  </si>
+  <si>
+    <t>Barrett-Arasaka Light-20</t>
+  </si>
+  <si>
+    <t>4D10 (20/9mm APFSDS)</t>
+  </si>
+  <si>
+    <t>450m</t>
+  </si>
+  <si>
+    <t>2000 eb</t>
+  </si>
+  <si>
+    <t>FR-F6</t>
+  </si>
+  <si>
+    <t>1100 eb</t>
+  </si>
+  <si>
+    <t>Nomad 15mm "Long Rifle"</t>
+  </si>
+  <si>
+    <t>7D10 (15mm BMG)</t>
+  </si>
+  <si>
+    <t>900m</t>
+  </si>
+  <si>
+    <t>Remington Gyro-Sniper Rifle</t>
+  </si>
+  <si>
+    <t>7D6 API (18mm Gyrojet)</t>
+  </si>
+  <si>
+    <t>Towa Manufacturing Type-00-Kai</t>
+  </si>
+  <si>
+    <t>9D6+3AP (7.62mm EAE)</t>
+  </si>
+  <si>
+    <t>1200m</t>
+  </si>
+  <si>
+    <t>Heckler &amp; Koch HK77UK</t>
+  </si>
+  <si>
+    <t>2D6+4 (9mm Long)</t>
+  </si>
+  <si>
+    <t>250m</t>
+  </si>
+  <si>
+    <t>Hughes Rocket Rifle</t>
+  </si>
+  <si>
+    <t>3D10AP (18mm HEAT/Gyrojet)</t>
+  </si>
+  <si>
+    <t>M-99 EVAW</t>
+  </si>
+  <si>
+    <t>6D6AP (12mm rocket)</t>
+  </si>
+  <si>
+    <t>5000 eb</t>
+  </si>
+  <si>
+    <t>Militech Cyborg Rifle</t>
+  </si>
+  <si>
+    <t>7D6+3 (.300Mag)</t>
+  </si>
+  <si>
+    <t>Militech Ninja</t>
+  </si>
+  <si>
+    <t>1D6 (5mm/.22)</t>
+  </si>
+  <si>
+    <t>Nomad .357 Magnum Automatic Carbine</t>
+  </si>
+  <si>
+    <t>2D6+3 (.357)</t>
+  </si>
+  <si>
+    <t>Nomad .357 Magnum Lever-Action Carbine</t>
+  </si>
+  <si>
+    <t>Nomad .44 Magnum Lever-Action Rifle</t>
+  </si>
+  <si>
+    <t>4D6+2 (.44)</t>
+  </si>
+  <si>
+    <t>Nomad 7.62mm Bolt-Action Rifle</t>
+  </si>
+  <si>
+    <t>Nomad "Personal Weapon" Derivatives</t>
+  </si>
+  <si>
+    <t>Rifle/SMG</t>
+  </si>
+  <si>
+    <t>3D6 (5.7mm)</t>
+  </si>
+  <si>
+    <t>Polymer One-Shot Cannon</t>
+  </si>
+  <si>
+    <t>4D6+2 (13mm)</t>
+  </si>
+  <si>
+    <t>Stein &amp; Wasserman Model F "Cyborg Assault" Weapon System</t>
+  </si>
+  <si>
+    <t>Varies (13mm)</t>
+  </si>
+  <si>
+    <t>1650 eb</t>
+  </si>
+  <si>
+    <t>Tsunami Arms Ramjet Rifle</t>
+  </si>
+  <si>
+    <t>Varies (8.5mm Ramjet)</t>
+  </si>
+  <si>
+    <t>800m</t>
+  </si>
+  <si>
+    <t>1230 eb</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>Constitution Arms Cyclone Squad Support Weapon</t>
+  </si>
+  <si>
+    <t>1200 eb</t>
+  </si>
+  <si>
+    <t>Constitution Arms Deluge Crowd Control Weapon</t>
+  </si>
+  <si>
+    <t>1-2pts+Drug</t>
+  </si>
+  <si>
+    <t>60m</t>
+  </si>
+  <si>
+    <t>Dover GA-1112 Autogun</t>
+  </si>
+  <si>
+    <t>4D6+4 (12mm Long)</t>
+  </si>
+  <si>
+    <t>1110 eb</t>
+  </si>
+  <si>
+    <t>FN MG-6 "One-on-One"</t>
+  </si>
+  <si>
+    <t>Fábrica de Armes M-2012HB SAW</t>
+  </si>
+  <si>
+    <t>1600 eb</t>
+  </si>
+  <si>
+    <t>Heckler &amp; Koch G-6 Advanced Squad Automatic</t>
+  </si>
+  <si>
+    <t>5D6 (6mm)</t>
+  </si>
+  <si>
+    <t>2050 eb</t>
+  </si>
+  <si>
+    <t>M2A5HB Browning .50cal HMG</t>
+  </si>
+  <si>
+    <t>6D10 (12.7mm)</t>
+  </si>
+  <si>
+    <t>M-60D Medium Machine Gun</t>
+  </si>
+  <si>
+    <t>Militech High Power 15</t>
+  </si>
+  <si>
+    <t>Rifle/HVY</t>
+  </si>
+  <si>
+    <t>20/60</t>
+  </si>
+  <si>
+    <t>Militech M-232 Squad Assault/Automatic Weapon</t>
+  </si>
+  <si>
+    <t>100/35</t>
+  </si>
+  <si>
+    <t>Militech Renegade Squad Automatic Weapon</t>
+  </si>
+  <si>
+    <t>200/35</t>
+  </si>
+  <si>
+    <t>Militech 20L Autocannon</t>
+  </si>
+  <si>
+    <t>8D10 (10mm)</t>
+  </si>
+  <si>
+    <t>Sternmeyer M-5A Squad Automatic Weapon</t>
+  </si>
+  <si>
+    <t>Towa Manufacturing Type-8 Medium Machine Gun</t>
+  </si>
+  <si>
+    <t>60mm Light Mortar</t>
+  </si>
+  <si>
+    <t>8D10 (60mm)</t>
+  </si>
+  <si>
+    <t>1000m/5m burst radius</t>
+  </si>
+  <si>
+    <t>Colt-Mauser M2X Cannon</t>
+  </si>
+  <si>
+    <t>8D10 (20mm)</t>
+  </si>
+  <si>
+    <t>3050 eb</t>
+  </si>
+  <si>
+    <t>Commercial Grenade Launchers</t>
+  </si>
+  <si>
+    <t>Varies (30-40mm)</t>
+  </si>
+  <si>
+    <t>225m</t>
+  </si>
+  <si>
+    <t>Kenshiri-Adachi F-253 Flamethrower</t>
+  </si>
+  <si>
+    <t>2D10</t>
+  </si>
+  <si>
+    <t>Light Anti-tank Weapon</t>
+  </si>
+  <si>
+    <t>4D10AP HEAT</t>
+  </si>
+  <si>
+    <t>100m/2m burst radius</t>
+  </si>
+  <si>
+    <t>M-32 Automatic Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Varies (40mm)</t>
+  </si>
+  <si>
+    <t>1600m</t>
+  </si>
+  <si>
+    <t>2500 eb</t>
+  </si>
+  <si>
+    <t>M-205 Grenade Launcher</t>
+  </si>
+  <si>
+    <t>M-212 Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Militech AM-3 "Anti-Matter Rifle"</t>
+  </si>
+  <si>
+    <t>9D10 (30mm)</t>
+  </si>
+  <si>
+    <t>6000 eb</t>
+  </si>
+  <si>
+    <t>Militech "Cowboy" U-55 Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Various (25mm)</t>
+  </si>
+  <si>
+    <t>Militech Hotshot L-ATGM</t>
+  </si>
+  <si>
+    <t>12D10AP HEAT</t>
+  </si>
+  <si>
+    <t>500m/4m burst radius</t>
+  </si>
+  <si>
+    <t>Militech Mini-Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Varies (25mm/10ga)</t>
+  </si>
+  <si>
+    <t>Militech RPG-A Grenade Launcher</t>
+  </si>
+  <si>
+    <t>6D10</t>
+  </si>
+  <si>
+    <t>750m</t>
+  </si>
+  <si>
+    <t>Militech Scorpion 16 Surface-To-Air Missile</t>
+  </si>
+  <si>
+    <t>7D10</t>
+  </si>
+  <si>
+    <t>500m/6m burst radius</t>
+  </si>
+  <si>
+    <t>Militech Urban Missile Launcher</t>
+  </si>
+  <si>
+    <t>4D6 (Missile)</t>
+  </si>
+  <si>
+    <t>Rhinemetall EMG-85 Railgun</t>
+  </si>
+  <si>
+    <t>5D10+10 (EAP)</t>
+  </si>
+  <si>
+    <t>1500m</t>
+  </si>
+  <si>
+    <t>11370 eb</t>
+  </si>
+  <si>
+    <t>Rostovic Wrist Racate</t>
+  </si>
+  <si>
+    <t>5D6 (10mm Rocket)</t>
+  </si>
+  <si>
+    <t>380 eb</t>
+  </si>
+  <si>
+    <t>Royal Enfield Ordnance 25mm Cockerill Assault Cannon</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>5D10+10AP (25mm)</t>
+  </si>
+  <si>
+    <t>7400 eb</t>
+  </si>
+  <si>
+    <t>Towa Manufacturing Type-9 Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Tsunami Arms Type-17 Anti-Armor Rifle</t>
+  </si>
+  <si>
+    <t>8D10AP (20mm AP)</t>
+  </si>
+  <si>
+    <t>7500 eb</t>
+  </si>
+  <si>
+    <t>Tsunami Arms Type-18 Automatic Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Varies (25mm)</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>14mm Handgun-Magnum Opus "Big Government"</t>
+  </si>
+  <si>
+    <t>12-Gauge "Pistol"</t>
+  </si>
+  <si>
+    <t>4D6 (12ga)</t>
+  </si>
+  <si>
+    <t>5.56mm caseless "SMG"</t>
+  </si>
+  <si>
+    <t>12.7mm "Assault Rifle"</t>
+  </si>
+  <si>
+    <t>14.5mm "Assault Rifle"</t>
+  </si>
+  <si>
+    <t>7D10 (14.5mm)</t>
+  </si>
+  <si>
+    <t>30mm HiVel caseless Auto-GL</t>
+  </si>
+  <si>
+    <t>Varies (30mm)</t>
+  </si>
+  <si>
+    <t>Arasaka "Pocket Tsunami" Grenade Launcher</t>
+  </si>
+  <si>
+    <t>1250 eb</t>
+  </si>
+  <si>
+    <t>Arasaka "Rage" 15mm Submachinegun</t>
+  </si>
+  <si>
+    <t>4D10+3 (15mm Kurz)</t>
+  </si>
+  <si>
+    <t>20*</t>
+  </si>
+  <si>
+    <t>Magnum Opus "Hellbringer".666 Magnum Revolver</t>
+  </si>
+  <si>
+    <t>7D6+3 (.666)</t>
+  </si>
+  <si>
+    <t>80m</t>
+  </si>
+  <si>
+    <t>Malorian 3600 Super-SMG</t>
+  </si>
+  <si>
+    <t>SlamDance, Inc. Hyper-Hammer</t>
+  </si>
+  <si>
+    <t>9D10AP</t>
+  </si>
+  <si>
+    <t>Tsunami Arms Helix</t>
+  </si>
+  <si>
+    <t>5D6 (10ga./#00)</t>
+  </si>
+  <si>
+    <t>United Armaments CLAW</t>
+  </si>
+  <si>
+    <t>Varies (4ga.)</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>4000 eb</t>
+  </si>
+  <si>
+    <t>Basic Commercial, Corp &amp; Military Grenades</t>
+  </si>
+  <si>
+    <t>20-30 eb</t>
+  </si>
+  <si>
+    <t>Biotech-Askari Motion Restraint Bomb</t>
+  </si>
+  <si>
+    <t>DutchArms GPz-78 Mini-Grenade</t>
+  </si>
+  <si>
+    <t>High Explosive/Frag</t>
+  </si>
+  <si>
+    <t>40 eb</t>
+  </si>
+  <si>
+    <t>EMP Grenade</t>
+  </si>
+  <si>
+    <t>Unreliable/Standard</t>
+  </si>
+  <si>
+    <t>200-400 eb</t>
+  </si>
+  <si>
+    <t>FEN Dz 22 "Saucer Grenades"</t>
+  </si>
+  <si>
+    <t>65 eb</t>
+  </si>
+  <si>
+    <t>Ninja Smoke Pellets</t>
+  </si>
+  <si>
+    <t>25 eb/5 pellets</t>
+  </si>
+  <si>
+    <t>Scatter Grenade</t>
+  </si>
+  <si>
+    <t>Spraypaint Grenade</t>
+  </si>
+  <si>
+    <t>Stench Bomb</t>
+  </si>
+  <si>
+    <t>Classic Rifle Grenades</t>
+  </si>
+  <si>
+    <t>DCR Rifle Grenades</t>
+  </si>
+  <si>
+    <t>High Explosive/Smoke</t>
+  </si>
+  <si>
+    <t>Militech 25mm Launched Grenades</t>
+  </si>
+  <si>
+    <t>Militech 25mm Pistol Grenades</t>
+  </si>
+  <si>
+    <t>Military 40mm Launched Grenades</t>
+  </si>
+  <si>
+    <t>Antipersonnel Mine</t>
+  </si>
+  <si>
+    <t>4D10 (Pen 2)</t>
+  </si>
+  <si>
+    <t>Antitank Mine</t>
+  </si>
+  <si>
+    <t>6D10AP (Pen 6)</t>
+  </si>
+  <si>
+    <t>C-6 "Flatfire" Plastic Explosive</t>
+  </si>
+  <si>
+    <t>8D10/kg</t>
+  </si>
+  <si>
+    <t>100 eb/kg.</t>
+  </si>
+  <si>
+    <t>Claymore Mine</t>
+  </si>
+  <si>
+    <t>4D10</t>
+  </si>
+  <si>
+    <t>Explosives Field Kit</t>
+  </si>
+  <si>
+    <t>FEN Dz 25 "Det Card™"</t>
+  </si>
+  <si>
+    <t>High Explosive</t>
+  </si>
+  <si>
+    <t>Militech PDU-3 Multi-Purpose Perimeter Defense Unit</t>
+  </si>
+  <si>
+    <t>2D6+5</t>
+  </si>
+  <si>
+    <t>S&amp;W Combat Magnum</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Liama Commanche</t>
+  </si>
+  <si>
+    <t>Colt .45 "Peacemaker"</t>
+  </si>
+  <si>
+    <t>2D6+2 (.45)</t>
+  </si>
+  <si>
+    <t>Colt .38 Detective</t>
+  </si>
+  <si>
+    <t>1D6+2 (.38)</t>
+  </si>
+  <si>
+    <t>C.O.P. .357 Derringer</t>
+  </si>
+  <si>
+    <t>UZI</t>
+  </si>
+  <si>
+    <t>Vz61 Skorpion</t>
+  </si>
+  <si>
+    <t>1D6 (.25)</t>
+  </si>
+  <si>
+    <t>Ingram MAC 10</t>
+  </si>
+  <si>
+    <t>H&amp;K MP5 &amp; MP5K</t>
+  </si>
+  <si>
+    <t>Thompson M1</t>
+  </si>
+  <si>
+    <t>Bushmaster</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>4D6 (5.56)</t>
+  </si>
+  <si>
+    <t>FN-FAL</t>
+  </si>
+  <si>
+    <t>6D6+2 (7.56)</t>
+  </si>
+  <si>
+    <t>AK 47, AKM, AKMS</t>
+  </si>
+  <si>
+    <t>5D6 (7.56(S))</t>
+  </si>
+  <si>
+    <t>M-16A &amp; M-16A2</t>
+  </si>
+  <si>
+    <t>Styer Aug</t>
+  </si>
+  <si>
+    <t>Winchester M70</t>
+  </si>
+  <si>
+    <t>5D6+1 (30-06)</t>
+  </si>
+  <si>
+    <t>CAWS</t>
+  </si>
+  <si>
+    <t>4D6(00)</t>
   </si>
 </sst>
 </file>
@@ -1311,11 +2238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661F2B52-BDB0-47F8-88FA-3CA7BE3500E6}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="M291" sqref="M291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7489,6 +8417,5329 @@
         <v>116</v>
       </c>
     </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>415</v>
+      </c>
+      <c r="B158" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158">
+        <v>-1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>416</v>
+      </c>
+      <c r="G158">
+        <v>20</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I158" t="s">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>126</v>
+      </c>
+      <c r="K158" t="s">
+        <v>94</v>
+      </c>
+      <c r="L158" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>417</v>
+      </c>
+      <c r="B159" t="s">
+        <v>200</v>
+      </c>
+      <c r="C159">
+        <v>-2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>416</v>
+      </c>
+      <c r="G159">
+        <v>15</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I159" t="s">
+        <v>2</v>
+      </c>
+      <c r="J159" t="s">
+        <v>126</v>
+      </c>
+      <c r="K159" t="s">
+        <v>111</v>
+      </c>
+      <c r="L159" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>418</v>
+      </c>
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>416</v>
+      </c>
+      <c r="G160">
+        <v>40</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I160" t="s">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>177</v>
+      </c>
+      <c r="K160" t="s">
+        <v>178</v>
+      </c>
+      <c r="L160" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>416</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>165</v>
+      </c>
+      <c r="J161" t="s">
+        <v>118</v>
+      </c>
+      <c r="K161" t="s">
+        <v>102</v>
+      </c>
+      <c r="L161" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>420</v>
+      </c>
+      <c r="B162" t="s">
+        <v>200</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>416</v>
+      </c>
+      <c r="G162">
+        <v>20</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I162" t="s">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>126</v>
+      </c>
+      <c r="K162" t="s">
+        <v>421</v>
+      </c>
+      <c r="L162" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>422</v>
+      </c>
+      <c r="B163" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163">
+        <v>-1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>423</v>
+      </c>
+      <c r="G163">
+        <v>4</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I163" t="s">
+        <v>7</v>
+      </c>
+      <c r="J163" t="s">
+        <v>126</v>
+      </c>
+      <c r="K163" t="s">
+        <v>424</v>
+      </c>
+      <c r="L163" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>425</v>
+      </c>
+      <c r="B164" t="s">
+        <v>200</v>
+      </c>
+      <c r="C164">
+        <v>-1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>426</v>
+      </c>
+      <c r="G164">
+        <v>16</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I164" t="s">
+        <v>7</v>
+      </c>
+      <c r="J164" t="s">
+        <v>427</v>
+      </c>
+      <c r="K164" t="s">
+        <v>406</v>
+      </c>
+      <c r="L164" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>428</v>
+      </c>
+      <c r="B165" t="s">
+        <v>200</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>426</v>
+      </c>
+      <c r="G165">
+        <v>20</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I165" t="s">
+        <v>7</v>
+      </c>
+      <c r="J165" t="s">
+        <v>126</v>
+      </c>
+      <c r="K165" t="s">
+        <v>214</v>
+      </c>
+      <c r="L165" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>429</v>
+      </c>
+      <c r="B166" t="s">
+        <v>200</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>430</v>
+      </c>
+      <c r="G166">
+        <v>21</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I166" t="s">
+        <v>2</v>
+      </c>
+      <c r="J166" t="s">
+        <v>126</v>
+      </c>
+      <c r="K166" t="s">
+        <v>178</v>
+      </c>
+      <c r="L166" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>431</v>
+      </c>
+      <c r="B167" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167">
+        <f>-1/-3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>432</v>
+      </c>
+      <c r="G167">
+        <v>6</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167" t="s">
+        <v>2</v>
+      </c>
+      <c r="J167" t="s">
+        <v>433</v>
+      </c>
+      <c r="K167" t="s">
+        <v>99</v>
+      </c>
+      <c r="L167" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>434</v>
+      </c>
+      <c r="B168" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" t="s">
+        <v>435</v>
+      </c>
+      <c r="D168" t="s">
+        <v>436</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>437</v>
+      </c>
+      <c r="G168">
+        <v>8</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>126</v>
+      </c>
+      <c r="K168" t="s">
+        <v>268</v>
+      </c>
+      <c r="L168" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>438</v>
+      </c>
+      <c r="B169" t="s">
+        <v>200</v>
+      </c>
+      <c r="C169">
+        <v>-1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>439</v>
+      </c>
+      <c r="G169">
+        <v>15</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169" t="s">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>126</v>
+      </c>
+      <c r="K169" t="s">
+        <v>85</v>
+      </c>
+      <c r="L169" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" t="s">
+        <v>200</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>441</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s">
+        <v>416</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170" t="s">
+        <v>2</v>
+      </c>
+      <c r="J170" t="s">
+        <v>126</v>
+      </c>
+      <c r="K170" t="s">
+        <v>205</v>
+      </c>
+      <c r="L170" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>442</v>
+      </c>
+      <c r="B171" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171">
+        <v>-2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" t="s">
+        <v>416</v>
+      </c>
+      <c r="G171">
+        <v>10</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171" t="s">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>126</v>
+      </c>
+      <c r="K171" t="s">
+        <v>99</v>
+      </c>
+      <c r="L171" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>443</v>
+      </c>
+      <c r="B172" t="s">
+        <v>200</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" t="s">
+        <v>444</v>
+      </c>
+      <c r="G172">
+        <v>40</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I172" t="s">
+        <v>2</v>
+      </c>
+      <c r="J172" t="s">
+        <v>177</v>
+      </c>
+      <c r="K172" t="s">
+        <v>445</v>
+      </c>
+      <c r="L172" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>447</v>
+      </c>
+      <c r="B173" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>448</v>
+      </c>
+      <c r="G173">
+        <v>30</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I173" t="s">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>145</v>
+      </c>
+      <c r="K173" t="s">
+        <v>108</v>
+      </c>
+      <c r="L173" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>449</v>
+      </c>
+      <c r="B174" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>450</v>
+      </c>
+      <c r="G174" t="s">
+        <v>451</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I174" t="s">
+        <v>7</v>
+      </c>
+      <c r="J174" t="s">
+        <v>145</v>
+      </c>
+      <c r="K174" t="s">
+        <v>424</v>
+      </c>
+      <c r="L174" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>452</v>
+      </c>
+      <c r="B175" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>144</v>
+      </c>
+      <c r="G175">
+        <v>35</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I175" t="s">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>145</v>
+      </c>
+      <c r="K175" t="s">
+        <v>88</v>
+      </c>
+      <c r="L175" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>453</v>
+      </c>
+      <c r="B176" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>450</v>
+      </c>
+      <c r="G176">
+        <v>60</v>
+      </c>
+      <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176" t="s">
+        <v>7</v>
+      </c>
+      <c r="J176" t="s">
+        <v>145</v>
+      </c>
+      <c r="K176" t="s">
+        <v>454</v>
+      </c>
+      <c r="L176" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>455</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" t="s">
+        <v>456</v>
+      </c>
+      <c r="G177">
+        <v>35</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I177" t="s">
+        <v>7</v>
+      </c>
+      <c r="J177" t="s">
+        <v>145</v>
+      </c>
+      <c r="K177" t="s">
+        <v>409</v>
+      </c>
+      <c r="L177" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>457</v>
+      </c>
+      <c r="B178" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" t="s">
+        <v>435</v>
+      </c>
+      <c r="D178" t="s">
+        <v>436</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>458</v>
+      </c>
+      <c r="G178">
+        <v>40</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I178" t="s">
+        <v>2</v>
+      </c>
+      <c r="J178" t="s">
+        <v>122</v>
+      </c>
+      <c r="K178" t="s">
+        <v>268</v>
+      </c>
+      <c r="L178" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>459</v>
+      </c>
+      <c r="B179" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179">
+        <f>-1/-2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>436</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" t="s">
+        <v>144</v>
+      </c>
+      <c r="G179">
+        <v>30</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I179" t="s">
+        <v>7</v>
+      </c>
+      <c r="J179" t="s">
+        <v>145</v>
+      </c>
+      <c r="K179" t="s">
+        <v>79</v>
+      </c>
+      <c r="L179" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>460</v>
+      </c>
+      <c r="B180" t="s">
+        <v>168</v>
+      </c>
+      <c r="C180" t="s">
+        <v>461</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" t="s">
+        <v>462</v>
+      </c>
+      <c r="G180">
+        <v>30</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I180" t="s">
+        <v>7</v>
+      </c>
+      <c r="J180" t="s">
+        <v>145</v>
+      </c>
+      <c r="K180" t="s">
+        <v>463</v>
+      </c>
+      <c r="L180" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>464</v>
+      </c>
+      <c r="B181" t="s">
+        <v>168</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>465</v>
+      </c>
+      <c r="G181">
+        <v>30</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I181" t="s">
+        <v>7</v>
+      </c>
+      <c r="J181" t="s">
+        <v>145</v>
+      </c>
+      <c r="K181" t="s">
+        <v>466</v>
+      </c>
+      <c r="L181" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>467</v>
+      </c>
+      <c r="B182" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182">
+        <v>-1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>144</v>
+      </c>
+      <c r="G182">
+        <v>35</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I182" t="s">
+        <v>2</v>
+      </c>
+      <c r="J182" t="s">
+        <v>145</v>
+      </c>
+      <c r="K182" t="s">
+        <v>468</v>
+      </c>
+      <c r="L182" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>469</v>
+      </c>
+      <c r="B183" t="s">
+        <v>168</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" t="s">
+        <v>470</v>
+      </c>
+      <c r="G183">
+        <v>35</v>
+      </c>
+      <c r="H183">
+        <v>30</v>
+      </c>
+      <c r="I183" t="s">
+        <v>7</v>
+      </c>
+      <c r="J183" t="s">
+        <v>145</v>
+      </c>
+      <c r="K183" t="s">
+        <v>406</v>
+      </c>
+      <c r="L183" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>471</v>
+      </c>
+      <c r="B184" t="s">
+        <v>168</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>472</v>
+      </c>
+      <c r="G184">
+        <v>150</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I184" t="s">
+        <v>2</v>
+      </c>
+      <c r="J184" t="s">
+        <v>145</v>
+      </c>
+      <c r="K184" t="s">
+        <v>473</v>
+      </c>
+      <c r="L184" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>474</v>
+      </c>
+      <c r="B185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" t="s">
+        <v>475</v>
+      </c>
+      <c r="G185">
+        <v>35</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I185" t="s">
+        <v>7</v>
+      </c>
+      <c r="J185" t="s">
+        <v>145</v>
+      </c>
+      <c r="K185" t="s">
+        <v>424</v>
+      </c>
+      <c r="L185" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>476</v>
+      </c>
+      <c r="B186" t="s">
+        <v>168</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" t="s">
+        <v>450</v>
+      </c>
+      <c r="G186">
+        <v>35</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I186" t="s">
+        <v>7</v>
+      </c>
+      <c r="J186" t="s">
+        <v>145</v>
+      </c>
+      <c r="K186" t="s">
+        <v>99</v>
+      </c>
+      <c r="L186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>477</v>
+      </c>
+      <c r="B187" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>478</v>
+      </c>
+      <c r="G187" t="s">
+        <v>479</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I187" t="s">
+        <v>7</v>
+      </c>
+      <c r="J187" t="s">
+        <v>480</v>
+      </c>
+      <c r="K187" t="s">
+        <v>481</v>
+      </c>
+      <c r="L187" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>482</v>
+      </c>
+      <c r="B188" t="s">
+        <v>168</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>450</v>
+      </c>
+      <c r="G188">
+        <v>90</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I188" t="s">
+        <v>7</v>
+      </c>
+      <c r="J188" t="s">
+        <v>145</v>
+      </c>
+      <c r="K188" t="s">
+        <v>483</v>
+      </c>
+      <c r="L188" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>484</v>
+      </c>
+      <c r="B189" t="s">
+        <v>168</v>
+      </c>
+      <c r="C189">
+        <v>-1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>297</v>
+      </c>
+      <c r="F189" t="s">
+        <v>448</v>
+      </c>
+      <c r="G189">
+        <v>30</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I189" t="s">
+        <v>7</v>
+      </c>
+      <c r="J189" t="s">
+        <v>145</v>
+      </c>
+      <c r="K189" t="s">
+        <v>485</v>
+      </c>
+      <c r="L189" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>486</v>
+      </c>
+      <c r="B190" t="s">
+        <v>168</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>450</v>
+      </c>
+      <c r="G190">
+        <v>100</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I190" t="s">
+        <v>7</v>
+      </c>
+      <c r="J190" t="s">
+        <v>145</v>
+      </c>
+      <c r="K190" t="s">
+        <v>487</v>
+      </c>
+      <c r="L190" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>488</v>
+      </c>
+      <c r="B191" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>450</v>
+      </c>
+      <c r="G191">
+        <v>35</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I191" t="s">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>145</v>
+      </c>
+      <c r="K191" t="s">
+        <v>123</v>
+      </c>
+      <c r="L191" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>498</v>
+      </c>
+      <c r="B192" t="s">
+        <v>168</v>
+      </c>
+      <c r="C192" t="s">
+        <v>499</v>
+      </c>
+      <c r="D192" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>500</v>
+      </c>
+      <c r="G192">
+        <v>40</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
+        <v>7</v>
+      </c>
+      <c r="J192" t="s">
+        <v>501</v>
+      </c>
+      <c r="K192" t="s">
+        <v>502</v>
+      </c>
+      <c r="L192" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>503</v>
+      </c>
+      <c r="B193" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>504</v>
+      </c>
+      <c r="G193">
+        <v>10</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>7</v>
+      </c>
+      <c r="J193" t="s">
+        <v>505</v>
+      </c>
+      <c r="K193" t="s">
+        <v>123</v>
+      </c>
+      <c r="L193" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>506</v>
+      </c>
+      <c r="B194" t="s">
+        <v>132</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>507</v>
+      </c>
+      <c r="G194">
+        <v>10</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" t="s">
+        <v>7</v>
+      </c>
+      <c r="J194" t="s">
+        <v>508</v>
+      </c>
+      <c r="K194" t="s">
+        <v>509</v>
+      </c>
+      <c r="L194" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>510</v>
+      </c>
+      <c r="B195" t="s">
+        <v>168</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>144</v>
+      </c>
+      <c r="G195">
+        <v>10</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195" t="s">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>480</v>
+      </c>
+      <c r="K195" t="s">
+        <v>511</v>
+      </c>
+      <c r="L195" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>512</v>
+      </c>
+      <c r="B196" t="s">
+        <v>168</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>513</v>
+      </c>
+      <c r="G196">
+        <v>9</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" t="s">
+        <v>514</v>
+      </c>
+      <c r="K196" t="s">
+        <v>146</v>
+      </c>
+      <c r="L196" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>515</v>
+      </c>
+      <c r="B197" t="s">
+        <v>168</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>516</v>
+      </c>
+      <c r="G197">
+        <v>6</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>2</v>
+      </c>
+      <c r="J197" t="s">
+        <v>501</v>
+      </c>
+      <c r="K197" t="s">
+        <v>178</v>
+      </c>
+      <c r="L197" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>517</v>
+      </c>
+      <c r="B198" t="s">
+        <v>168</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>518</v>
+      </c>
+      <c r="G198">
+        <v>6</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" t="s">
+        <v>7</v>
+      </c>
+      <c r="J198" t="s">
+        <v>519</v>
+      </c>
+      <c r="K198" t="s">
+        <v>146</v>
+      </c>
+      <c r="L198" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>520</v>
+      </c>
+      <c r="B199" t="s">
+        <v>168</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>521</v>
+      </c>
+      <c r="G199">
+        <v>30</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I199" t="s">
+        <v>7</v>
+      </c>
+      <c r="J199" t="s">
+        <v>522</v>
+      </c>
+      <c r="K199" t="s">
+        <v>409</v>
+      </c>
+      <c r="L199" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>523</v>
+      </c>
+      <c r="B200" t="s">
+        <v>168</v>
+      </c>
+      <c r="C200">
+        <v>-1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" t="s">
+        <v>524</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200" t="s">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>480</v>
+      </c>
+      <c r="K200" t="s">
+        <v>409</v>
+      </c>
+      <c r="L200" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>525</v>
+      </c>
+      <c r="B201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="D201" t="s">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>526</v>
+      </c>
+      <c r="G201">
+        <v>30</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201" t="s">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>145</v>
+      </c>
+      <c r="K201" t="s">
+        <v>527</v>
+      </c>
+      <c r="L201" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>528</v>
+      </c>
+      <c r="B202" t="s">
+        <v>168</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>529</v>
+      </c>
+      <c r="G202">
+        <v>30</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
+      </c>
+      <c r="I202" t="s">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>480</v>
+      </c>
+      <c r="K202" t="s">
+        <v>424</v>
+      </c>
+      <c r="L202" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>530</v>
+      </c>
+      <c r="B203" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" t="s">
+        <v>531</v>
+      </c>
+      <c r="G203">
+        <v>30</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I203" t="s">
+        <v>7</v>
+      </c>
+      <c r="J203" t="s">
+        <v>522</v>
+      </c>
+      <c r="K203" t="s">
+        <v>411</v>
+      </c>
+      <c r="L203" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>532</v>
+      </c>
+      <c r="B204" t="s">
+        <v>168</v>
+      </c>
+      <c r="C204" t="s">
+        <v>96</v>
+      </c>
+      <c r="D204" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>533</v>
+      </c>
+      <c r="G204">
+        <v>30</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I204" t="s">
+        <v>7</v>
+      </c>
+      <c r="J204" t="s">
+        <v>104</v>
+      </c>
+      <c r="K204" t="s">
+        <v>205</v>
+      </c>
+      <c r="L204" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>534</v>
+      </c>
+      <c r="B205" t="s">
+        <v>168</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" t="s">
+        <v>533</v>
+      </c>
+      <c r="G205">
+        <v>9</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205" t="s">
+        <v>7</v>
+      </c>
+      <c r="J205" t="s">
+        <v>104</v>
+      </c>
+      <c r="K205" t="s">
+        <v>268</v>
+      </c>
+      <c r="L205" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>535</v>
+      </c>
+      <c r="B206" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
+        <v>536</v>
+      </c>
+      <c r="G206">
+        <v>8</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206" t="s">
+        <v>7</v>
+      </c>
+      <c r="J206" t="s">
+        <v>122</v>
+      </c>
+      <c r="K206" t="s">
+        <v>411</v>
+      </c>
+      <c r="L206" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>537</v>
+      </c>
+      <c r="B207" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" t="s">
+        <v>144</v>
+      </c>
+      <c r="G207">
+        <v>6</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
+        <v>7</v>
+      </c>
+      <c r="J207" t="s">
+        <v>145</v>
+      </c>
+      <c r="K207" t="s">
+        <v>108</v>
+      </c>
+      <c r="L207" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>538</v>
+      </c>
+      <c r="B208" t="s">
+        <v>539</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>540</v>
+      </c>
+      <c r="G208">
+        <v>50</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I208" t="s">
+        <v>7</v>
+      </c>
+      <c r="J208" t="s">
+        <v>122</v>
+      </c>
+      <c r="K208" t="s">
+        <v>108</v>
+      </c>
+      <c r="L208" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>541</v>
+      </c>
+      <c r="B209" t="s">
+        <v>168</v>
+      </c>
+      <c r="C209">
+        <v>-2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" t="s">
+        <v>542</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>165</v>
+      </c>
+      <c r="J209" t="s">
+        <v>104</v>
+      </c>
+      <c r="K209" t="s">
+        <v>208</v>
+      </c>
+      <c r="L209" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>543</v>
+      </c>
+      <c r="B210" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>544</v>
+      </c>
+      <c r="G210">
+        <v>8</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>7</v>
+      </c>
+      <c r="J210" t="s">
+        <v>104</v>
+      </c>
+      <c r="K210" t="s">
+        <v>545</v>
+      </c>
+      <c r="L210" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>546</v>
+      </c>
+      <c r="B211" t="s">
+        <v>168</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>547</v>
+      </c>
+      <c r="G211">
+        <v>9</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211" t="s">
+        <v>7</v>
+      </c>
+      <c r="J211" t="s">
+        <v>548</v>
+      </c>
+      <c r="K211" t="s">
+        <v>549</v>
+      </c>
+      <c r="L211" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>551</v>
+      </c>
+      <c r="B212" t="s">
+        <v>132</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>144</v>
+      </c>
+      <c r="G212">
+        <v>100</v>
+      </c>
+      <c r="H212">
+        <v>35</v>
+      </c>
+      <c r="I212" t="s">
+        <v>7</v>
+      </c>
+      <c r="J212" t="s">
+        <v>480</v>
+      </c>
+      <c r="K212" t="s">
+        <v>552</v>
+      </c>
+      <c r="L212" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>553</v>
+      </c>
+      <c r="B213" t="s">
+        <v>132</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>554</v>
+      </c>
+      <c r="G213">
+        <v>400</v>
+      </c>
+      <c r="H213">
+        <v>35</v>
+      </c>
+      <c r="I213" t="s">
+        <v>2</v>
+      </c>
+      <c r="J213" t="s">
+        <v>555</v>
+      </c>
+      <c r="K213" t="s">
+        <v>424</v>
+      </c>
+      <c r="L213" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>556</v>
+      </c>
+      <c r="B214" t="s">
+        <v>132</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>557</v>
+      </c>
+      <c r="G214">
+        <v>400</v>
+      </c>
+      <c r="H214">
+        <v>80</v>
+      </c>
+      <c r="I214" t="s">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>145</v>
+      </c>
+      <c r="K214" t="s">
+        <v>558</v>
+      </c>
+      <c r="L214" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>559</v>
+      </c>
+      <c r="B215" t="s">
+        <v>132</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>450</v>
+      </c>
+      <c r="G215">
+        <v>100</v>
+      </c>
+      <c r="H215">
+        <v>40</v>
+      </c>
+      <c r="I215" t="s">
+        <v>7</v>
+      </c>
+      <c r="J215" t="s">
+        <v>508</v>
+      </c>
+      <c r="K215" t="s">
+        <v>481</v>
+      </c>
+      <c r="L215" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>560</v>
+      </c>
+      <c r="B216" t="s">
+        <v>132</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>465</v>
+      </c>
+      <c r="G216">
+        <v>100</v>
+      </c>
+      <c r="H216">
+        <v>30</v>
+      </c>
+      <c r="I216" t="s">
+        <v>7</v>
+      </c>
+      <c r="J216" t="s">
+        <v>508</v>
+      </c>
+      <c r="K216" t="s">
+        <v>561</v>
+      </c>
+      <c r="L216" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>562</v>
+      </c>
+      <c r="B217" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>563</v>
+      </c>
+      <c r="G217">
+        <v>100</v>
+      </c>
+      <c r="H217">
+        <v>30</v>
+      </c>
+      <c r="I217" t="s">
+        <v>7</v>
+      </c>
+      <c r="J217" t="s">
+        <v>508</v>
+      </c>
+      <c r="K217" t="s">
+        <v>564</v>
+      </c>
+      <c r="L217" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>565</v>
+      </c>
+      <c r="B218" t="s">
+        <v>132</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>566</v>
+      </c>
+      <c r="G218">
+        <v>100</v>
+      </c>
+      <c r="H218">
+        <v>10</v>
+      </c>
+      <c r="I218" t="s">
+        <v>7</v>
+      </c>
+      <c r="J218" t="s">
+        <v>501</v>
+      </c>
+      <c r="K218">
+        <v>2000</v>
+      </c>
+      <c r="L218" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>567</v>
+      </c>
+      <c r="B219" t="s">
+        <v>132</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>144</v>
+      </c>
+      <c r="G219">
+        <v>100</v>
+      </c>
+      <c r="H219">
+        <v>20</v>
+      </c>
+      <c r="I219" t="s">
+        <v>7</v>
+      </c>
+      <c r="J219" t="s">
+        <v>480</v>
+      </c>
+      <c r="K219">
+        <v>1000</v>
+      </c>
+      <c r="L219" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>568</v>
+      </c>
+      <c r="B220" t="s">
+        <v>569</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>521</v>
+      </c>
+      <c r="G220">
+        <v>180</v>
+      </c>
+      <c r="H220" t="s">
+        <v>570</v>
+      </c>
+      <c r="I220" t="s">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>122</v>
+      </c>
+      <c r="K220">
+        <v>1600</v>
+      </c>
+      <c r="L220" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>571</v>
+      </c>
+      <c r="B221" t="s">
+        <v>569</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>450</v>
+      </c>
+      <c r="G221" t="s">
+        <v>572</v>
+      </c>
+      <c r="H221">
+        <v>20</v>
+      </c>
+      <c r="I221" t="s">
+        <v>7</v>
+      </c>
+      <c r="J221" t="s">
+        <v>145</v>
+      </c>
+      <c r="K221">
+        <v>1000</v>
+      </c>
+      <c r="L221" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>573</v>
+      </c>
+      <c r="B222" t="s">
+        <v>132</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>470</v>
+      </c>
+      <c r="G222" t="s">
+        <v>574</v>
+      </c>
+      <c r="H222">
+        <v>20</v>
+      </c>
+      <c r="I222" t="s">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>145</v>
+      </c>
+      <c r="K222">
+        <v>1100</v>
+      </c>
+      <c r="L222" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>575</v>
+      </c>
+      <c r="B223" t="s">
+        <v>132</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" t="s">
+        <v>576</v>
+      </c>
+      <c r="G223">
+        <v>100</v>
+      </c>
+      <c r="H223">
+        <v>10</v>
+      </c>
+      <c r="I223" t="s">
+        <v>7</v>
+      </c>
+      <c r="J223" t="s">
+        <v>480</v>
+      </c>
+      <c r="K223">
+        <v>3000</v>
+      </c>
+      <c r="L223" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>577</v>
+      </c>
+      <c r="B224" t="s">
+        <v>132</v>
+      </c>
+      <c r="C224">
+        <v>-1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224" t="s">
+        <v>144</v>
+      </c>
+      <c r="G224">
+        <v>200</v>
+      </c>
+      <c r="H224">
+        <v>20</v>
+      </c>
+      <c r="I224" t="s">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>480</v>
+      </c>
+      <c r="K224">
+        <v>1000</v>
+      </c>
+      <c r="L224" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>578</v>
+      </c>
+      <c r="B225" t="s">
+        <v>132</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>144</v>
+      </c>
+      <c r="G225">
+        <v>100</v>
+      </c>
+      <c r="H225">
+        <v>35</v>
+      </c>
+      <c r="I225" t="s">
+        <v>7</v>
+      </c>
+      <c r="J225" t="s">
+        <v>480</v>
+      </c>
+      <c r="K225">
+        <v>2500</v>
+      </c>
+      <c r="L225" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>579</v>
+      </c>
+      <c r="B226" t="s">
+        <v>132</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>580</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226" t="s">
+        <v>7</v>
+      </c>
+      <c r="J226" t="s">
+        <v>581</v>
+      </c>
+      <c r="K226" t="s">
+        <v>409</v>
+      </c>
+      <c r="L226" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>582</v>
+      </c>
+      <c r="B227" t="s">
+        <v>132</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>583</v>
+      </c>
+      <c r="G227">
+        <v>8</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>501</v>
+      </c>
+      <c r="K227" t="s">
+        <v>584</v>
+      </c>
+      <c r="L227" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>585</v>
+      </c>
+      <c r="B228" t="s">
+        <v>132</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>23</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" t="s">
+        <v>586</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228" t="s">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>587</v>
+      </c>
+      <c r="K228" t="s">
+        <v>111</v>
+      </c>
+      <c r="L228" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>588</v>
+      </c>
+      <c r="B229" t="s">
+        <v>132</v>
+      </c>
+      <c r="C229">
+        <v>-2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>589</v>
+      </c>
+      <c r="G229">
+        <v>10</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229" t="s">
+        <v>2</v>
+      </c>
+      <c r="J229" t="s">
+        <v>126</v>
+      </c>
+      <c r="K229" t="s">
+        <v>123</v>
+      </c>
+      <c r="L229" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>590</v>
+      </c>
+      <c r="B230" t="s">
+        <v>132</v>
+      </c>
+      <c r="C230">
+        <v>-2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>591</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
+        <v>7</v>
+      </c>
+      <c r="J230" t="s">
+        <v>592</v>
+      </c>
+      <c r="K230" t="s">
+        <v>268</v>
+      </c>
+      <c r="L230" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>593</v>
+      </c>
+      <c r="B231" t="s">
+        <v>132</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>594</v>
+      </c>
+      <c r="G231">
+        <v>50</v>
+      </c>
+      <c r="H231">
+        <v>20</v>
+      </c>
+      <c r="I231" t="s">
+        <v>7</v>
+      </c>
+      <c r="J231" t="s">
+        <v>595</v>
+      </c>
+      <c r="K231" t="s">
+        <v>596</v>
+      </c>
+      <c r="L231" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>597</v>
+      </c>
+      <c r="B232" t="s">
+        <v>132</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>23</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>594</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232" t="s">
+        <v>7</v>
+      </c>
+      <c r="J232" t="s">
+        <v>122</v>
+      </c>
+      <c r="K232" t="s">
+        <v>195</v>
+      </c>
+      <c r="L232" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>598</v>
+      </c>
+      <c r="B233" t="s">
+        <v>132</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>594</v>
+      </c>
+      <c r="G233">
+        <v>8</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233" t="s">
+        <v>7</v>
+      </c>
+      <c r="J233" t="s">
+        <v>122</v>
+      </c>
+      <c r="K233" t="s">
+        <v>108</v>
+      </c>
+      <c r="L233" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>599</v>
+      </c>
+      <c r="B234" t="s">
+        <v>132</v>
+      </c>
+      <c r="C234" t="s">
+        <v>96</v>
+      </c>
+      <c r="D234" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>600</v>
+      </c>
+      <c r="G234">
+        <v>5</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234" t="s">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>595</v>
+      </c>
+      <c r="K234" t="s">
+        <v>601</v>
+      </c>
+      <c r="L234" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>602</v>
+      </c>
+      <c r="B235" t="s">
+        <v>132</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>603</v>
+      </c>
+      <c r="G235">
+        <v>12</v>
+      </c>
+      <c r="H235">
+        <v>3</v>
+      </c>
+      <c r="I235" t="s">
+        <v>2</v>
+      </c>
+      <c r="J235" t="s">
+        <v>107</v>
+      </c>
+      <c r="K235" t="s">
+        <v>94</v>
+      </c>
+      <c r="L235" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>604</v>
+      </c>
+      <c r="B236" t="s">
+        <v>132</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>605</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>7</v>
+      </c>
+      <c r="J236" t="s">
+        <v>606</v>
+      </c>
+      <c r="K236" t="s">
+        <v>596</v>
+      </c>
+      <c r="L236" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>607</v>
+      </c>
+      <c r="B237" t="s">
+        <v>132</v>
+      </c>
+      <c r="C237">
+        <v>-1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237" t="s">
+        <v>608</v>
+      </c>
+      <c r="G237">
+        <v>4</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237" t="s">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>107</v>
+      </c>
+      <c r="K237" t="s">
+        <v>82</v>
+      </c>
+      <c r="L237" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>609</v>
+      </c>
+      <c r="B238" t="s">
+        <v>132</v>
+      </c>
+      <c r="C238">
+        <v>-2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" t="s">
+        <v>610</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
+        <v>7</v>
+      </c>
+      <c r="J238" t="s">
+        <v>611</v>
+      </c>
+      <c r="K238" t="s">
+        <v>123</v>
+      </c>
+      <c r="L238" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>612</v>
+      </c>
+      <c r="B239" t="s">
+        <v>132</v>
+      </c>
+      <c r="C239">
+        <v>-1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F239" t="s">
+        <v>613</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
+        <v>7</v>
+      </c>
+      <c r="J239" t="s">
+        <v>614</v>
+      </c>
+      <c r="K239" t="s">
+        <v>178</v>
+      </c>
+      <c r="L239" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>615</v>
+      </c>
+      <c r="B240" t="s">
+        <v>132</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>616</v>
+      </c>
+      <c r="G240">
+        <v>12</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240" t="s">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>122</v>
+      </c>
+      <c r="K240" t="s">
+        <v>94</v>
+      </c>
+      <c r="L240" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>617</v>
+      </c>
+      <c r="B241" t="s">
+        <v>132</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>618</v>
+      </c>
+      <c r="G241">
+        <v>5</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I241" t="s">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>619</v>
+      </c>
+      <c r="K241" t="s">
+        <v>620</v>
+      </c>
+      <c r="L241" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>621</v>
+      </c>
+      <c r="B242" t="s">
+        <v>132</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>622</v>
+      </c>
+      <c r="G242">
+        <v>6</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
+      <c r="I242" t="s">
+        <v>395</v>
+      </c>
+      <c r="J242" t="s">
+        <v>522</v>
+      </c>
+      <c r="K242" t="s">
+        <v>623</v>
+      </c>
+      <c r="L242" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>624</v>
+      </c>
+      <c r="B243" t="s">
+        <v>132</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>625</v>
+      </c>
+      <c r="F243" t="s">
+        <v>626</v>
+      </c>
+      <c r="G243">
+        <v>12</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243" t="s">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>619</v>
+      </c>
+      <c r="K243" t="s">
+        <v>627</v>
+      </c>
+      <c r="L243" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>628</v>
+      </c>
+      <c r="B244" t="s">
+        <v>132</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>594</v>
+      </c>
+      <c r="G244">
+        <v>8</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244" t="s">
+        <v>7</v>
+      </c>
+      <c r="J244" t="s">
+        <v>122</v>
+      </c>
+      <c r="K244" t="s">
+        <v>409</v>
+      </c>
+      <c r="L244" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>629</v>
+      </c>
+      <c r="B245" t="s">
+        <v>132</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" t="s">
+        <v>630</v>
+      </c>
+      <c r="G245">
+        <v>12</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245" t="s">
+        <v>2</v>
+      </c>
+      <c r="J245" t="s">
+        <v>519</v>
+      </c>
+      <c r="K245" t="s">
+        <v>631</v>
+      </c>
+      <c r="L245" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>632</v>
+      </c>
+      <c r="B246" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246">
+        <v>-1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1</v>
+      </c>
+      <c r="F246" t="s">
+        <v>633</v>
+      </c>
+      <c r="G246">
+        <v>30</v>
+      </c>
+      <c r="H246">
+        <v>10</v>
+      </c>
+      <c r="I246" t="s">
+        <v>2</v>
+      </c>
+      <c r="J246" t="s">
+        <v>122</v>
+      </c>
+      <c r="K246" t="s">
+        <v>509</v>
+      </c>
+      <c r="L246" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>635</v>
+      </c>
+      <c r="B247" t="s">
+        <v>141</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1</v>
+      </c>
+      <c r="F247" t="s">
+        <v>353</v>
+      </c>
+      <c r="G247">
+        <v>13</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247" t="s">
+        <v>7</v>
+      </c>
+      <c r="J247" t="s">
+        <v>555</v>
+      </c>
+      <c r="K247" t="s">
+        <v>509</v>
+      </c>
+      <c r="L247" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>636</v>
+      </c>
+      <c r="B248" t="s">
+        <v>141</v>
+      </c>
+      <c r="C248">
+        <v>-2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>251</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>637</v>
+      </c>
+      <c r="G248">
+        <v>9</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248" t="s">
+        <v>2</v>
+      </c>
+      <c r="J248" t="s">
+        <v>181</v>
+      </c>
+      <c r="K248" t="s">
+        <v>178</v>
+      </c>
+      <c r="L248" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>638</v>
+      </c>
+      <c r="B249" t="s">
+        <v>363</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>441</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1</v>
+      </c>
+      <c r="F249" t="s">
+        <v>450</v>
+      </c>
+      <c r="G249">
+        <v>50</v>
+      </c>
+      <c r="H249">
+        <v>25</v>
+      </c>
+      <c r="I249" t="s">
+        <v>7</v>
+      </c>
+      <c r="J249" t="s">
+        <v>122</v>
+      </c>
+      <c r="K249" t="s">
+        <v>552</v>
+      </c>
+      <c r="L249" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>639</v>
+      </c>
+      <c r="B250" t="s">
+        <v>168</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>566</v>
+      </c>
+      <c r="G250">
+        <v>50</v>
+      </c>
+      <c r="H250">
+        <v>10</v>
+      </c>
+      <c r="I250" t="s">
+        <v>7</v>
+      </c>
+      <c r="J250" t="s">
+        <v>145</v>
+      </c>
+      <c r="K250" t="s">
+        <v>509</v>
+      </c>
+      <c r="L250" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>640</v>
+      </c>
+      <c r="B251" t="s">
+        <v>168</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>641</v>
+      </c>
+      <c r="G251">
+        <v>50</v>
+      </c>
+      <c r="H251">
+        <v>10</v>
+      </c>
+      <c r="I251" t="s">
+        <v>7</v>
+      </c>
+      <c r="J251" t="s">
+        <v>145</v>
+      </c>
+      <c r="K251" t="s">
+        <v>596</v>
+      </c>
+      <c r="L251" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>642</v>
+      </c>
+      <c r="B252" t="s">
+        <v>132</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>643</v>
+      </c>
+      <c r="G252">
+        <v>25</v>
+      </c>
+      <c r="H252">
+        <v>15</v>
+      </c>
+      <c r="I252" t="s">
+        <v>7</v>
+      </c>
+      <c r="J252" t="s">
+        <v>230</v>
+      </c>
+      <c r="K252" t="s">
+        <v>509</v>
+      </c>
+      <c r="L252" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>644</v>
+      </c>
+      <c r="B253" t="s">
+        <v>132</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
+        <v>633</v>
+      </c>
+      <c r="G253">
+        <v>6</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253" t="s">
+        <v>2</v>
+      </c>
+      <c r="J253" t="s">
+        <v>122</v>
+      </c>
+      <c r="K253" t="s">
+        <v>645</v>
+      </c>
+      <c r="L253" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>646</v>
+      </c>
+      <c r="B254" t="s">
+        <v>132</v>
+      </c>
+      <c r="C254">
+        <f>-1/-2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D254" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>647</v>
+      </c>
+      <c r="G254" t="s">
+        <v>648</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I254" t="s">
+        <v>7</v>
+      </c>
+      <c r="J254" t="s">
+        <v>104</v>
+      </c>
+      <c r="K254" t="s">
+        <v>445</v>
+      </c>
+      <c r="L254" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>649</v>
+      </c>
+      <c r="B255" t="s">
+        <v>141</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>251</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1</v>
+      </c>
+      <c r="F255" t="s">
+        <v>650</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255" t="s">
+        <v>7</v>
+      </c>
+      <c r="J255" t="s">
+        <v>651</v>
+      </c>
+      <c r="K255" t="s">
+        <v>660</v>
+      </c>
+      <c r="L255" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>652</v>
+      </c>
+      <c r="B256" t="s">
+        <v>363</v>
+      </c>
+      <c r="C256" t="s">
+        <v>435</v>
+      </c>
+      <c r="D256" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1</v>
+      </c>
+      <c r="F256" t="s">
+        <v>353</v>
+      </c>
+      <c r="G256">
+        <v>20</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I256" t="s">
+        <v>7</v>
+      </c>
+      <c r="J256" t="s">
+        <v>107</v>
+      </c>
+      <c r="K256" t="s">
+        <v>146</v>
+      </c>
+      <c r="L256" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>653</v>
+      </c>
+      <c r="B257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257">
+        <v>-2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" t="s">
+        <v>654</v>
+      </c>
+      <c r="G257">
+        <v>2</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257" t="s">
+        <v>2</v>
+      </c>
+      <c r="J257" t="s">
+        <v>39</v>
+      </c>
+      <c r="K257" t="s">
+        <v>509</v>
+      </c>
+      <c r="L257" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>655</v>
+      </c>
+      <c r="B258" t="s">
+        <v>200</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258" t="s">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>656</v>
+      </c>
+      <c r="G258">
+        <v>60</v>
+      </c>
+      <c r="H258">
+        <v>43</v>
+      </c>
+      <c r="I258" t="s">
+        <v>7</v>
+      </c>
+      <c r="J258" t="s">
+        <v>555</v>
+      </c>
+      <c r="K258" t="s">
+        <v>146</v>
+      </c>
+      <c r="L258" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>657</v>
+      </c>
+      <c r="B259" t="s">
+        <v>200</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" t="s">
+        <v>658</v>
+      </c>
+      <c r="G259">
+        <v>28</v>
+      </c>
+      <c r="H259">
+        <v>14</v>
+      </c>
+      <c r="I259" t="s">
+        <v>7</v>
+      </c>
+      <c r="J259" t="s">
+        <v>555</v>
+      </c>
+      <c r="K259" t="s">
+        <v>561</v>
+      </c>
+      <c r="L259" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>661</v>
+      </c>
+      <c r="B260" t="s">
+        <v>132</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>157</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260" t="s">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>27</v>
+      </c>
+      <c r="K260" t="s">
+        <v>662</v>
+      </c>
+      <c r="L260" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>663</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>137</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261" t="s">
+        <v>165</v>
+      </c>
+      <c r="J261" t="s">
+        <v>27</v>
+      </c>
+      <c r="K261" t="s">
+        <v>102</v>
+      </c>
+      <c r="L261" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>664</v>
+      </c>
+      <c r="B262" t="s">
+        <v>132</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>665</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262" t="s">
+        <v>7</v>
+      </c>
+      <c r="J262" t="s">
+        <v>27</v>
+      </c>
+      <c r="K262" t="s">
+        <v>666</v>
+      </c>
+      <c r="L262" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>667</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" t="s">
+        <v>210</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263" t="s">
+        <v>668</v>
+      </c>
+      <c r="J263" t="s">
+        <v>27</v>
+      </c>
+      <c r="K263" t="s">
+        <v>669</v>
+      </c>
+      <c r="L263" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>670</v>
+      </c>
+      <c r="B264" t="s">
+        <v>132</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>665</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264" t="s">
+        <v>2</v>
+      </c>
+      <c r="J264" t="s">
+        <v>27</v>
+      </c>
+      <c r="K264" t="s">
+        <v>671</v>
+      </c>
+      <c r="L264" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>672</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" t="s">
+        <v>13</v>
+      </c>
+      <c r="F265" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" t="s">
+        <v>13</v>
+      </c>
+      <c r="H265" t="s">
+        <v>13</v>
+      </c>
+      <c r="I265" t="s">
+        <v>13</v>
+      </c>
+      <c r="J265" t="s">
+        <v>27</v>
+      </c>
+      <c r="K265" t="s">
+        <v>673</v>
+      </c>
+      <c r="L265" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>674</v>
+      </c>
+      <c r="B266" t="s">
+        <v>132</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266" t="s">
+        <v>137</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266" t="s">
+        <v>7</v>
+      </c>
+      <c r="J266" t="s">
+        <v>27</v>
+      </c>
+      <c r="K266" t="s">
+        <v>198</v>
+      </c>
+      <c r="L266" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>675</v>
+      </c>
+      <c r="B267" t="s">
+        <v>132</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" t="s">
+        <v>11</v>
+      </c>
+      <c r="F267" t="s">
+        <v>137</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267" t="s">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>27</v>
+      </c>
+      <c r="K267" t="s">
+        <v>34</v>
+      </c>
+      <c r="L267" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>676</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+      <c r="F268" t="s">
+        <v>187</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268" t="s">
+        <v>7</v>
+      </c>
+      <c r="J268" t="s">
+        <v>27</v>
+      </c>
+      <c r="K268" t="s">
+        <v>34</v>
+      </c>
+      <c r="L268" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>677</v>
+      </c>
+      <c r="B269" t="s">
+        <v>132</v>
+      </c>
+      <c r="C269">
+        <v>-3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>157</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>0.5</v>
+      </c>
+      <c r="I269" t="s">
+        <v>7</v>
+      </c>
+      <c r="J269" t="s">
+        <v>104</v>
+      </c>
+      <c r="K269" t="s">
+        <v>10</v>
+      </c>
+      <c r="L269" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>678</v>
+      </c>
+      <c r="B270" t="s">
+        <v>132</v>
+      </c>
+      <c r="C270">
+        <v>-1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>679</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0.5</v>
+      </c>
+      <c r="I270" t="s">
+        <v>7</v>
+      </c>
+      <c r="J270" t="s">
+        <v>107</v>
+      </c>
+      <c r="K270" t="s">
+        <v>10</v>
+      </c>
+      <c r="L270" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>680</v>
+      </c>
+      <c r="B271" t="s">
+        <v>157</v>
+      </c>
+      <c r="C271" t="s">
+        <v>157</v>
+      </c>
+      <c r="D271" t="s">
+        <v>157</v>
+      </c>
+      <c r="E271" t="s">
+        <v>157</v>
+      </c>
+      <c r="F271" t="s">
+        <v>157</v>
+      </c>
+      <c r="G271" t="s">
+        <v>157</v>
+      </c>
+      <c r="H271" t="s">
+        <v>157</v>
+      </c>
+      <c r="I271" t="s">
+        <v>157</v>
+      </c>
+      <c r="J271" t="s">
+        <v>157</v>
+      </c>
+      <c r="K271" t="s">
+        <v>157</v>
+      </c>
+      <c r="L271" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>681</v>
+      </c>
+      <c r="B272" t="s">
+        <v>157</v>
+      </c>
+      <c r="C272" t="s">
+        <v>157</v>
+      </c>
+      <c r="D272" t="s">
+        <v>157</v>
+      </c>
+      <c r="E272" t="s">
+        <v>157</v>
+      </c>
+      <c r="F272" t="s">
+        <v>157</v>
+      </c>
+      <c r="G272" t="s">
+        <v>157</v>
+      </c>
+      <c r="H272" t="s">
+        <v>157</v>
+      </c>
+      <c r="I272" t="s">
+        <v>157</v>
+      </c>
+      <c r="J272" t="s">
+        <v>157</v>
+      </c>
+      <c r="K272" t="s">
+        <v>157</v>
+      </c>
+      <c r="L272" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>682</v>
+      </c>
+      <c r="B273" t="s">
+        <v>157</v>
+      </c>
+      <c r="C273" t="s">
+        <v>157</v>
+      </c>
+      <c r="D273" t="s">
+        <v>157</v>
+      </c>
+      <c r="E273" t="s">
+        <v>157</v>
+      </c>
+      <c r="F273" t="s">
+        <v>157</v>
+      </c>
+      <c r="G273" t="s">
+        <v>157</v>
+      </c>
+      <c r="H273" t="s">
+        <v>157</v>
+      </c>
+      <c r="I273" t="s">
+        <v>157</v>
+      </c>
+      <c r="J273" t="s">
+        <v>157</v>
+      </c>
+      <c r="K273" t="s">
+        <v>157</v>
+      </c>
+      <c r="L273" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>683</v>
+      </c>
+      <c r="B274" t="s">
+        <v>132</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1</v>
+      </c>
+      <c r="F274" t="s">
+        <v>684</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274" t="s">
+        <v>7</v>
+      </c>
+      <c r="J274" t="s">
+        <v>13</v>
+      </c>
+      <c r="K274" t="s">
+        <v>85</v>
+      </c>
+      <c r="L274" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>685</v>
+      </c>
+      <c r="B275" t="s">
+        <v>132</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1</v>
+      </c>
+      <c r="F275" t="s">
+        <v>686</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275" t="s">
+        <v>7</v>
+      </c>
+      <c r="J275" t="s">
+        <v>13</v>
+      </c>
+      <c r="K275" t="s">
+        <v>205</v>
+      </c>
+      <c r="L275" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>687</v>
+      </c>
+      <c r="B276" t="s">
+        <v>132</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1</v>
+      </c>
+      <c r="F276" t="s">
+        <v>688</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276" t="s">
+        <v>7</v>
+      </c>
+      <c r="J276" t="s">
+        <v>13</v>
+      </c>
+      <c r="K276" t="s">
+        <v>689</v>
+      </c>
+      <c r="L276" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>690</v>
+      </c>
+      <c r="B277" t="s">
+        <v>132</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277" t="s">
+        <v>691</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277" t="s">
+        <v>2</v>
+      </c>
+      <c r="J277" t="s">
+        <v>13</v>
+      </c>
+      <c r="K277" t="s">
+        <v>108</v>
+      </c>
+      <c r="L277" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>692</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" t="s">
+        <v>13</v>
+      </c>
+      <c r="I278" t="s">
+        <v>13</v>
+      </c>
+      <c r="J278" t="s">
+        <v>13</v>
+      </c>
+      <c r="K278" t="s">
+        <v>123</v>
+      </c>
+      <c r="L278" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>693</v>
+      </c>
+      <c r="B279" t="s">
+        <v>132</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F279" t="s">
+        <v>694</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279" t="s">
+        <v>2</v>
+      </c>
+      <c r="J279" t="s">
+        <v>13</v>
+      </c>
+      <c r="K279" t="s">
+        <v>69</v>
+      </c>
+      <c r="L279" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>695</v>
+      </c>
+      <c r="B280" t="s">
+        <v>132</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1</v>
+      </c>
+      <c r="F280" t="s">
+        <v>696</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280" t="s">
+        <v>2</v>
+      </c>
+      <c r="J280" t="s">
+        <v>13</v>
+      </c>
+      <c r="K280" t="s">
+        <v>111</v>
+      </c>
+      <c r="L280" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>697</v>
+      </c>
+      <c r="B281" t="s">
+        <v>141</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281" t="s">
+        <v>533</v>
+      </c>
+      <c r="G281">
+        <v>6</v>
+      </c>
+      <c r="H281">
+        <v>2</v>
+      </c>
+      <c r="I281" t="s">
+        <v>7</v>
+      </c>
+      <c r="J281" t="s">
+        <v>698</v>
+      </c>
+      <c r="K281" t="s">
+        <v>698</v>
+      </c>
+      <c r="L281" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>699</v>
+      </c>
+      <c r="B282" t="s">
+        <v>141</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" t="s">
+        <v>358</v>
+      </c>
+      <c r="G282">
+        <v>6</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282" t="s">
+        <v>2</v>
+      </c>
+      <c r="J282" t="s">
+        <v>698</v>
+      </c>
+      <c r="K282" t="s">
+        <v>698</v>
+      </c>
+      <c r="L282" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>700</v>
+      </c>
+      <c r="B283" t="s">
+        <v>141</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283" t="s">
+        <v>701</v>
+      </c>
+      <c r="G283">
+        <v>6</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283" t="s">
+        <v>7</v>
+      </c>
+      <c r="J283" t="s">
+        <v>698</v>
+      </c>
+      <c r="K283" t="s">
+        <v>698</v>
+      </c>
+      <c r="L283" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>702</v>
+      </c>
+      <c r="B284" t="s">
+        <v>141</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" t="s">
+        <v>703</v>
+      </c>
+      <c r="G284">
+        <v>6</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284" t="s">
+        <v>7</v>
+      </c>
+      <c r="J284" t="s">
+        <v>698</v>
+      </c>
+      <c r="K284" t="s">
+        <v>698</v>
+      </c>
+      <c r="L284" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>704</v>
+      </c>
+      <c r="B285" t="s">
+        <v>141</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" t="s">
+        <v>533</v>
+      </c>
+      <c r="G285">
+        <v>4</v>
+      </c>
+      <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285" t="s">
+        <v>7</v>
+      </c>
+      <c r="J285" t="s">
+        <v>698</v>
+      </c>
+      <c r="K285" t="s">
+        <v>698</v>
+      </c>
+      <c r="L285" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>705</v>
+      </c>
+      <c r="B286" t="s">
+        <v>363</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
+      </c>
+      <c r="E286" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" t="s">
+        <v>252</v>
+      </c>
+      <c r="G286">
+        <v>30</v>
+      </c>
+      <c r="H286">
+        <v>20</v>
+      </c>
+      <c r="I286" t="s">
+        <v>7</v>
+      </c>
+      <c r="J286" t="s">
+        <v>698</v>
+      </c>
+      <c r="K286" t="s">
+        <v>698</v>
+      </c>
+      <c r="L286" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>706</v>
+      </c>
+      <c r="B287" t="s">
+        <v>363</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>707</v>
+      </c>
+      <c r="G287">
+        <v>20</v>
+      </c>
+      <c r="H287">
+        <v>25</v>
+      </c>
+      <c r="I287" t="s">
+        <v>7</v>
+      </c>
+      <c r="J287" t="s">
+        <v>698</v>
+      </c>
+      <c r="K287" t="s">
+        <v>698</v>
+      </c>
+      <c r="L287" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>708</v>
+      </c>
+      <c r="B288" t="s">
+        <v>363</v>
+      </c>
+      <c r="C288">
+        <v>-1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288" t="s">
+        <v>701</v>
+      </c>
+      <c r="G288">
+        <v>30</v>
+      </c>
+      <c r="H288">
+        <v>5</v>
+      </c>
+      <c r="I288" t="s">
+        <v>165</v>
+      </c>
+      <c r="J288" t="s">
+        <v>698</v>
+      </c>
+      <c r="K288" t="s">
+        <v>698</v>
+      </c>
+      <c r="L288" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>709</v>
+      </c>
+      <c r="B289" t="s">
+        <v>363</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>23</v>
+      </c>
+      <c r="E289" t="s">
+        <v>11</v>
+      </c>
+      <c r="F289" t="s">
+        <v>252</v>
+      </c>
+      <c r="G289">
+        <v>30</v>
+      </c>
+      <c r="H289">
+        <v>20</v>
+      </c>
+      <c r="I289" t="s">
+        <v>2</v>
+      </c>
+      <c r="J289" t="s">
+        <v>698</v>
+      </c>
+      <c r="K289" t="s">
+        <v>698</v>
+      </c>
+      <c r="L289" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>710</v>
+      </c>
+      <c r="B290" t="s">
+        <v>363</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>0</v>
+      </c>
+      <c r="E290" t="s">
+        <v>11</v>
+      </c>
+      <c r="F290" t="s">
+        <v>701</v>
+      </c>
+      <c r="G290">
+        <v>30</v>
+      </c>
+      <c r="H290">
+        <v>20</v>
+      </c>
+      <c r="I290" t="s">
+        <v>7</v>
+      </c>
+      <c r="J290" t="s">
+        <v>698</v>
+      </c>
+      <c r="K290" t="s">
+        <v>698</v>
+      </c>
+      <c r="L290" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>711</v>
+      </c>
+      <c r="B291" t="s">
+        <v>363</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291" t="s">
+        <v>712</v>
+      </c>
+      <c r="E291" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" t="s">
+        <v>713</v>
+      </c>
+      <c r="G291">
+        <v>30</v>
+      </c>
+      <c r="H291">
+        <v>20</v>
+      </c>
+      <c r="I291" t="s">
+        <v>2</v>
+      </c>
+      <c r="J291" t="s">
+        <v>698</v>
+      </c>
+      <c r="K291" t="s">
+        <v>698</v>
+      </c>
+      <c r="L291" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>714</v>
+      </c>
+      <c r="B292" t="s">
+        <v>168</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292" t="s">
+        <v>0</v>
+      </c>
+      <c r="E292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" t="s">
+        <v>715</v>
+      </c>
+      <c r="G292">
+        <v>20</v>
+      </c>
+      <c r="H292">
+        <v>21</v>
+      </c>
+      <c r="I292" t="s">
+        <v>7</v>
+      </c>
+      <c r="J292" t="s">
+        <v>698</v>
+      </c>
+      <c r="K292" t="s">
+        <v>698</v>
+      </c>
+      <c r="L292" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>716</v>
+      </c>
+      <c r="B293" t="s">
+        <v>168</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293" t="s">
+        <v>0</v>
+      </c>
+      <c r="E293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" t="s">
+        <v>717</v>
+      </c>
+      <c r="G293">
+        <v>30</v>
+      </c>
+      <c r="H293">
+        <v>20</v>
+      </c>
+      <c r="I293" t="s">
+        <v>7</v>
+      </c>
+      <c r="J293" t="s">
+        <v>698</v>
+      </c>
+      <c r="K293" t="s">
+        <v>698</v>
+      </c>
+      <c r="L293" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>718</v>
+      </c>
+      <c r="B294" t="s">
+        <v>168</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>11</v>
+      </c>
+      <c r="F294" t="s">
+        <v>713</v>
+      </c>
+      <c r="G294">
+        <v>30</v>
+      </c>
+      <c r="H294">
+        <v>25</v>
+      </c>
+      <c r="I294" t="s">
+        <v>165</v>
+      </c>
+      <c r="J294" t="s">
+        <v>698</v>
+      </c>
+      <c r="K294" t="s">
+        <v>698</v>
+      </c>
+      <c r="L294" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>719</v>
+      </c>
+      <c r="B295" t="s">
+        <v>168</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>0</v>
+      </c>
+      <c r="E295" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295" t="s">
+        <v>713</v>
+      </c>
+      <c r="G295">
+        <v>30</v>
+      </c>
+      <c r="H295">
+        <v>20</v>
+      </c>
+      <c r="I295" t="s">
+        <v>7</v>
+      </c>
+      <c r="J295" t="s">
+        <v>698</v>
+      </c>
+      <c r="K295" t="s">
+        <v>698</v>
+      </c>
+      <c r="L295" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>720</v>
+      </c>
+      <c r="B296" t="s">
+        <v>168</v>
+      </c>
+      <c r="C296">
+        <v>3</v>
+      </c>
+      <c r="D296" t="s">
+        <v>0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" t="s">
+        <v>721</v>
+      </c>
+      <c r="G296">
+        <v>5</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296" t="s">
+        <v>7</v>
+      </c>
+      <c r="J296" t="s">
+        <v>698</v>
+      </c>
+      <c r="K296" t="s">
+        <v>698</v>
+      </c>
+      <c r="L296" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>722</v>
+      </c>
+      <c r="B297" t="s">
+        <v>200</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297" t="s">
+        <v>0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>6</v>
+      </c>
+      <c r="F297" t="s">
+        <v>723</v>
+      </c>
+      <c r="G297">
+        <v>10</v>
+      </c>
+      <c r="H297">
+        <v>10</v>
+      </c>
+      <c r="I297" t="s">
+        <v>2</v>
+      </c>
+      <c r="J297" t="s">
+        <v>698</v>
+      </c>
+      <c r="K297" t="s">
+        <v>698</v>
+      </c>
+      <c r="L297" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
